--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf17-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf17-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf17</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,43 +540,43 @@
         <v>1.430739666666667</v>
       </c>
       <c r="H2">
-        <v>4.292219</v>
+        <v>4.292218999999999</v>
       </c>
       <c r="I2">
-        <v>0.7530926191740722</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="J2">
-        <v>0.7530926191740721</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.051811</v>
+        <v>0.3659943333333333</v>
       </c>
       <c r="N2">
-        <v>0.155433</v>
+        <v>1.097983</v>
       </c>
       <c r="O2">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149161</v>
       </c>
       <c r="P2">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149162</v>
       </c>
       <c r="Q2">
-        <v>0.07412805286966666</v>
+        <v>0.5236426104752221</v>
       </c>
       <c r="R2">
-        <v>0.667152475827</v>
+        <v>4.712783494276999</v>
       </c>
       <c r="S2">
-        <v>0.0007752599626161508</v>
+        <v>0.004917432733747365</v>
       </c>
       <c r="T2">
-        <v>0.0007752599626161507</v>
+        <v>0.004917432733747365</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -602,13 +602,13 @@
         <v>1.430739666666667</v>
       </c>
       <c r="H3">
-        <v>4.292219</v>
+        <v>4.292218999999999</v>
       </c>
       <c r="I3">
-        <v>0.7530926191740722</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="J3">
-        <v>0.7530926191740721</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,10 +623,10 @@
         <v>0.273934</v>
       </c>
       <c r="O3">
-        <v>0.001814268977075408</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="P3">
-        <v>0.001814268977075407</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="Q3">
         <v>0.1306427466162222</v>
@@ -635,10 +635,10 @@
         <v>1.175784719546</v>
       </c>
       <c r="S3">
-        <v>0.001366312575831983</v>
+        <v>0.001226842326781335</v>
       </c>
       <c r="T3">
-        <v>0.001366312575831983</v>
+        <v>0.001226842326781335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -664,13 +664,13 @@
         <v>1.430739666666667</v>
       </c>
       <c r="H4">
-        <v>4.292219</v>
+        <v>4.292218999999999</v>
       </c>
       <c r="I4">
-        <v>0.7530926191740722</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="J4">
-        <v>0.7530926191740721</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.144057</v>
+        <v>53.897087</v>
       </c>
       <c r="N4">
-        <v>150.432171</v>
+        <v>161.691261</v>
       </c>
       <c r="O4">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135933</v>
       </c>
       <c r="P4">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135934</v>
       </c>
       <c r="Q4">
-        <v>71.74309139749434</v>
+        <v>77.11270028868432</v>
       </c>
       <c r="R4">
-        <v>645.6878225774491</v>
+        <v>694.0143025981589</v>
       </c>
       <c r="S4">
-        <v>0.7503171094022917</v>
+        <v>0.7241513753876779</v>
       </c>
       <c r="T4">
-        <v>0.7503171094022916</v>
+        <v>0.724151375387678</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,43 +726,43 @@
         <v>1.430739666666667</v>
       </c>
       <c r="H5">
-        <v>4.292219</v>
+        <v>4.292218999999999</v>
       </c>
       <c r="I5">
-        <v>0.7530926191740722</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="J5">
-        <v>0.7530926191740721</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.04236633333333333</v>
+        <v>0.06004666666666667</v>
       </c>
       <c r="N5">
-        <v>0.127099</v>
+        <v>0.18014</v>
       </c>
       <c r="O5">
-        <v>0.0008417785770196733</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="P5">
-        <v>0.0008417785770196732</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="Q5">
-        <v>0.06061519363122223</v>
+        <v>0.08591114785111111</v>
       </c>
       <c r="R5">
-        <v>0.5455367426809999</v>
+        <v>0.7732003306599999</v>
       </c>
       <c r="S5">
-        <v>0.0006339372333323693</v>
+        <v>0.0008067759998627032</v>
       </c>
       <c r="T5">
-        <v>0.000633937233332369</v>
+        <v>0.0008067759998627033</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,46 +785,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4690793333333333</v>
+        <v>0.4223926666666666</v>
       </c>
       <c r="H6">
-        <v>1.407238</v>
+        <v>1.267178</v>
       </c>
       <c r="I6">
-        <v>0.2469073808259278</v>
+        <v>0.2158410161600821</v>
       </c>
       <c r="J6">
-        <v>0.2469073808259278</v>
+        <v>0.2158410161600822</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.051811</v>
+        <v>0.3659943333333333</v>
       </c>
       <c r="N6">
-        <v>0.155433</v>
+        <v>1.097983</v>
       </c>
       <c r="O6">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149161</v>
       </c>
       <c r="P6">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149162</v>
       </c>
       <c r="Q6">
-        <v>0.02430346933933333</v>
+        <v>0.1545933224415555</v>
       </c>
       <c r="R6">
-        <v>0.218731224054</v>
+        <v>1.391339901974</v>
       </c>
       <c r="S6">
-        <v>0.0002541751199722164</v>
+        <v>0.001451757838238104</v>
       </c>
       <c r="T6">
-        <v>0.0002541751199722164</v>
+        <v>0.001451757838238105</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.4690793333333333</v>
+        <v>0.4223926666666666</v>
       </c>
       <c r="H7">
-        <v>1.407238</v>
+        <v>1.267178</v>
       </c>
       <c r="I7">
-        <v>0.2469073808259278</v>
+        <v>0.2158410161600821</v>
       </c>
       <c r="J7">
-        <v>0.2469073808259278</v>
+        <v>0.2158410161600822</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,22 +871,22 @@
         <v>0.273934</v>
       </c>
       <c r="O7">
-        <v>0.001814268977075408</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="P7">
-        <v>0.001814268977075407</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="Q7">
-        <v>0.04283225936577778</v>
+        <v>0.03856923758355556</v>
       </c>
       <c r="R7">
-        <v>0.385490334292</v>
+        <v>0.347123138252</v>
       </c>
       <c r="S7">
-        <v>0.0004479564012434241</v>
+        <v>0.0003621967112969117</v>
       </c>
       <c r="T7">
-        <v>0.000447956401243424</v>
+        <v>0.0003621967112969117</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.4690793333333333</v>
+        <v>0.4223926666666666</v>
       </c>
       <c r="H8">
-        <v>1.407238</v>
+        <v>1.267178</v>
       </c>
       <c r="I8">
-        <v>0.2469073808259278</v>
+        <v>0.2158410161600821</v>
       </c>
       <c r="J8">
-        <v>0.2469073808259278</v>
+        <v>0.2158410161600822</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>50.144057</v>
+        <v>53.897087</v>
       </c>
       <c r="N8">
-        <v>150.432171</v>
+        <v>161.691261</v>
       </c>
       <c r="O8">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135933</v>
       </c>
       <c r="P8">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135934</v>
       </c>
       <c r="Q8">
-        <v>23.52154082818867</v>
+        <v>22.76573430349533</v>
       </c>
       <c r="R8">
-        <v>211.693867453698</v>
+        <v>204.891608731458</v>
       </c>
       <c r="S8">
-        <v>0.2459974079610248</v>
+        <v>0.2137888797288784</v>
       </c>
       <c r="T8">
-        <v>0.2459974079610248</v>
+        <v>0.2137888797288785</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,46 +971,294 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.4690793333333333</v>
+        <v>0.4223926666666666</v>
       </c>
       <c r="H9">
-        <v>1.407238</v>
+        <v>1.267178</v>
       </c>
       <c r="I9">
-        <v>0.2469073808259278</v>
+        <v>0.2158410161600821</v>
       </c>
       <c r="J9">
-        <v>0.2469073808259278</v>
+        <v>0.2158410161600822</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.06004666666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.18014</v>
+      </c>
+      <c r="O9">
+        <v>0.001103506117169219</v>
+      </c>
+      <c r="P9">
+        <v>0.001103506117169219</v>
+      </c>
+      <c r="Q9">
+        <v>0.02536327165777778</v>
+      </c>
+      <c r="R9">
+        <v>0.22826944492</v>
+      </c>
+      <c r="S9">
+        <v>0.0002381818816686708</v>
+      </c>
+      <c r="T9">
+        <v>0.0002381818816686709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M9">
-        <v>0.04236633333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.127099</v>
-      </c>
-      <c r="O9">
-        <v>0.0008417785770196733</v>
-      </c>
-      <c r="P9">
-        <v>0.0008417785770196732</v>
-      </c>
-      <c r="Q9">
-        <v>0.01987317139577778</v>
-      </c>
-      <c r="R9">
-        <v>0.178858542562</v>
-      </c>
-      <c r="S9">
-        <v>0.000207841343687304</v>
-      </c>
-      <c r="T9">
-        <v>0.000207841343687304</v>
+      <c r="G10">
+        <v>0.1038296666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.311489</v>
+      </c>
+      <c r="I10">
+        <v>0.05305655739184852</v>
+      </c>
+      <c r="J10">
+        <v>0.05305655739184854</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.3659943333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.097983</v>
+      </c>
+      <c r="O10">
+        <v>0.006726051721149161</v>
+      </c>
+      <c r="P10">
+        <v>0.006726051721149162</v>
+      </c>
+      <c r="Q10">
+        <v>0.03800106963188889</v>
+      </c>
+      <c r="R10">
+        <v>0.342009626687</v>
+      </c>
+      <c r="S10">
+        <v>0.000356861149163692</v>
+      </c>
+      <c r="T10">
+        <v>0.0003568611491636922</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1038296666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.311489</v>
+      </c>
+      <c r="I11">
+        <v>0.05305655739184852</v>
+      </c>
+      <c r="J11">
+        <v>0.05305655739184854</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.09131133333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.273934</v>
+      </c>
+      <c r="O11">
+        <v>0.001678071748088335</v>
+      </c>
+      <c r="P11">
+        <v>0.001678071748088335</v>
+      </c>
+      <c r="Q11">
+        <v>0.009480825302888889</v>
+      </c>
+      <c r="R11">
+        <v>0.08532742772600001</v>
+      </c>
+      <c r="S11">
+        <v>8.903271001008834E-05</v>
+      </c>
+      <c r="T11">
+        <v>8.903271001008837E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1038296666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.311489</v>
+      </c>
+      <c r="I12">
+        <v>0.05305655739184852</v>
+      </c>
+      <c r="J12">
+        <v>0.05305655739184854</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>53.897087</v>
+      </c>
+      <c r="N12">
+        <v>161.691261</v>
+      </c>
+      <c r="O12">
+        <v>0.9904923704135933</v>
+      </c>
+      <c r="P12">
+        <v>0.9904923704135934</v>
+      </c>
+      <c r="Q12">
+        <v>5.596116577514334</v>
+      </c>
+      <c r="R12">
+        <v>50.365049197629</v>
+      </c>
+      <c r="S12">
+        <v>0.0525521152970369</v>
+      </c>
+      <c r="T12">
+        <v>0.05255211529703692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1038296666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.311489</v>
+      </c>
+      <c r="I13">
+        <v>0.05305655739184852</v>
+      </c>
+      <c r="J13">
+        <v>0.05305655739184854</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.06004666666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.18014</v>
+      </c>
+      <c r="O13">
+        <v>0.001103506117169219</v>
+      </c>
+      <c r="P13">
+        <v>0.001103506117169219</v>
+      </c>
+      <c r="Q13">
+        <v>0.006234625384444445</v>
+      </c>
+      <c r="R13">
+        <v>0.05611162846000001</v>
+      </c>
+      <c r="S13">
+        <v>5.854823563784457E-05</v>
+      </c>
+      <c r="T13">
+        <v>5.854823563784459E-05</v>
       </c>
     </row>
   </sheetData>
